--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284BA3E7-A1D1-7945-931A-C80A326EF192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497916BB-7C63-924A-8EDA-879C00AFE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="8580" windowWidth="28620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="115">
   <si>
     <t>DOI</t>
   </si>
@@ -275,13 +275,103 @@
   </si>
   <si>
     <t>ROC-AUC</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Colon length</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Blood biochemical concentration</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Acoustic intensity</t>
+  </si>
+  <si>
+    <t>Osmotic pressure</t>
+  </si>
+  <si>
+    <t>Cytokine in cell percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +385,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -338,17 +436,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,15 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="161" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,8 +792,23 @@
       <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -693,8 +824,23 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -710,8 +856,23 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -727,8 +888,23 @@
       <c r="E4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -744,8 +920,23 @@
       <c r="E5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -761,8 +952,23 @@
       <c r="E6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -778,8 +984,23 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -795,8 +1016,23 @@
       <c r="E8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -812,8 +1048,23 @@
       <c r="E9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -829,8 +1080,23 @@
       <c r="E10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -846,8 +1112,23 @@
       <c r="E11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -863,8 +1144,23 @@
       <c r="E12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -880,8 +1176,23 @@
       <c r="E13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -897,8 +1208,23 @@
       <c r="E14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -914,8 +1240,23 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -931,8 +1272,23 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -948,8 +1304,23 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -965,8 +1336,23 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -982,8 +1368,23 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -999,8 +1400,23 @@
       <c r="E20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1016,8 +1432,23 @@
       <c r="E21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1033,8 +1464,23 @@
       <c r="E22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1050,8 +1496,23 @@
       <c r="E23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1067,8 +1528,23 @@
       <c r="E24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1084,8 +1560,23 @@
       <c r="E25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1101,8 +1592,23 @@
       <c r="E26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1118,8 +1624,23 @@
       <c r="E27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1135,8 +1656,23 @@
       <c r="E28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1152,8 +1688,23 @@
       <c r="E29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1169,8 +1720,23 @@
       <c r="E30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1186,8 +1752,23 @@
       <c r="E31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1203,8 +1784,23 @@
       <c r="E32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1220,8 +1816,23 @@
       <c r="E33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1237,8 +1848,23 @@
       <c r="E34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1254,8 +1880,23 @@
       <c r="E35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1271,8 +1912,23 @@
       <c r="E36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1288,8 +1944,23 @@
       <c r="E37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1305,8 +1976,23 @@
       <c r="E38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1322,8 +2008,23 @@
       <c r="E39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1339,8 +2040,23 @@
       <c r="E40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1356,8 +2072,23 @@
       <c r="E41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1373,8 +2104,23 @@
       <c r="E42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1390,8 +2136,23 @@
       <c r="E43" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1407,8 +2168,23 @@
       <c r="E44" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1424,8 +2200,23 @@
       <c r="E45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1441,8 +2232,23 @@
       <c r="E46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -1458,8 +2264,23 @@
       <c r="E47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1475,8 +2296,23 @@
       <c r="E48" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -1492,8 +2328,23 @@
       <c r="E49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -1509,8 +2360,23 @@
       <c r="E50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1526,8 +2392,23 @@
       <c r="E51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1543,8 +2424,23 @@
       <c r="E52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1560,8 +2456,23 @@
       <c r="E53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1577,8 +2488,23 @@
       <c r="E54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1594,8 +2520,17 @@
       <c r="E55" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1611,8 +2546,17 @@
       <c r="E56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1628,8 +2572,17 @@
       <c r="E57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1645,8 +2598,23 @@
       <c r="E58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -1662,8 +2630,11 @@
       <c r="E59" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +2650,23 @@
       <c r="E60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -1696,8 +2682,23 @@
       <c r="E61" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -1713,8 +2714,23 @@
       <c r="E62" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1730,8 +2746,23 @@
       <c r="E63" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -1747,8 +2778,23 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1764,8 +2810,23 @@
       <c r="E65" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1781,8 +2842,23 @@
       <c r="E66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -1798,8 +2874,23 @@
       <c r="E67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1815,8 +2906,23 @@
       <c r="E68" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1832,8 +2938,23 @@
       <c r="E69" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -1849,8 +2970,23 @@
       <c r="E70" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -1866,8 +3002,23 @@
       <c r="E71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71" t="s">
+        <v>105</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+      <c r="J71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -1883,8 +3034,23 @@
       <c r="E72" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+      <c r="J72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -1900,8 +3066,23 @@
       <c r="E73" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+      <c r="J73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -1917,8 +3098,23 @@
       <c r="E74" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -1934,8 +3130,23 @@
       <c r="E75" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+      <c r="J75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -1951,8 +3162,23 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
+      <c r="H76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+      <c r="J76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -1968,8 +3194,23 @@
       <c r="E77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+      <c r="J77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -1985,8 +3226,23 @@
       <c r="E78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+      <c r="J78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -2002,8 +3258,23 @@
       <c r="E79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +3290,23 @@
       <c r="E80" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+      <c r="J80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -2036,8 +3322,23 @@
       <c r="E81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" t="s">
+        <v>100</v>
+      </c>
+      <c r="H81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -2053,8 +3354,23 @@
       <c r="E82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+      <c r="J82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -2070,8 +3386,23 @@
       <c r="E83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s">
+        <v>100</v>
+      </c>
+      <c r="H83" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+      <c r="J83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -2087,8 +3418,23 @@
       <c r="E84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" t="s">
+        <v>104</v>
+      </c>
+      <c r="J84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -2104,8 +3450,23 @@
       <c r="E85" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s">
+        <v>100</v>
+      </c>
+      <c r="H85" t="s">
+        <v>103</v>
+      </c>
+      <c r="I85" t="s">
+        <v>104</v>
+      </c>
+      <c r="J85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -2121,8 +3482,23 @@
       <c r="E86" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" t="s">
+        <v>103</v>
+      </c>
+      <c r="I86" t="s">
+        <v>104</v>
+      </c>
+      <c r="J86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +3514,23 @@
       <c r="E87" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" t="s">
+        <v>103</v>
+      </c>
+      <c r="I87" t="s">
+        <v>104</v>
+      </c>
+      <c r="J87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -2155,8 +3546,23 @@
       <c r="E88" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s">
+        <v>100</v>
+      </c>
+      <c r="H88" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" t="s">
+        <v>104</v>
+      </c>
+      <c r="J88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -2172,8 +3578,23 @@
       <c r="E89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" t="s">
+        <v>103</v>
+      </c>
+      <c r="I89" t="s">
+        <v>104</v>
+      </c>
+      <c r="J89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -2189,8 +3610,23 @@
       <c r="E90" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" t="s">
+        <v>110</v>
+      </c>
+      <c r="I90" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -2206,8 +3642,23 @@
       <c r="E91" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" t="s">
+        <v>108</v>
+      </c>
+      <c r="I91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -2222,6 +3673,21 @@
       </c>
       <c r="E92" t="s">
         <v>84</v>
+      </c>
+      <c r="F92" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" t="s">
+        <v>58</v>
+      </c>
+      <c r="I92" t="s">
+        <v>93</v>
+      </c>
+      <c r="J92" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497916BB-7C63-924A-8EDA-879C00AFE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107DA33C-92D4-AA41-81B6-A391F406CFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="8580" windowWidth="28620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="116">
   <si>
     <t>DOI</t>
   </si>
@@ -232,9 +232,6 @@
     <t>%IFNgamma+ of CD8+</t>
   </si>
   <si>
-    <t>%Eomes+ of perntamer+</t>
-  </si>
-  <si>
     <t>%TOX+ of pentamer+</t>
   </si>
   <si>
@@ -364,7 +361,13 @@
     <t>Osmotic pressure</t>
   </si>
   <si>
-    <t>Cytokine in cell percentage</t>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Protein in cell percentage</t>
+  </si>
+  <si>
+    <t>%Eomes+ of pentamer+</t>
   </si>
 </sst>
 </file>
@@ -767,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -793,19 +796,19 @@
         <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,19 +828,19 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -857,19 +860,19 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -889,19 +892,19 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -921,19 +924,19 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -953,19 +956,19 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -985,19 +988,19 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,19 +1020,19 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1049,19 +1052,19 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1081,19 +1084,19 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1113,19 +1116,19 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1145,19 +1148,19 @@
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,19 +1180,19 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1209,19 +1212,19 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
         <v>98</v>
       </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1241,19 +1244,19 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1273,19 +1276,19 @@
         <v>53</v>
       </c>
       <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1305,19 +1308,19 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
         <v>108</v>
       </c>
-      <c r="I17" t="s">
-        <v>109</v>
-      </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1337,19 +1340,19 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1369,19 +1372,19 @@
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1401,19 +1404,19 @@
         <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1433,19 +1436,19 @@
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1465,19 +1468,19 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,19 +1500,19 @@
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" t="s">
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1529,19 +1532,19 @@
         <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1561,19 +1564,19 @@
         <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1593,19 +1596,19 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1625,19 +1628,19 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1657,19 +1660,19 @@
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1689,19 +1692,19 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1721,19 +1724,19 @@
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1753,19 +1756,19 @@
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1785,19 +1788,19 @@
         <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1817,19 +1820,19 @@
         <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1849,19 +1852,19 @@
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
         <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1881,19 +1884,19 @@
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
         <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1913,19 +1916,19 @@
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1945,19 +1948,19 @@
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" t="s">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
-        <v>101</v>
-      </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1977,19 +1980,19 @@
         <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
-        <v>101</v>
-      </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2009,19 +2012,19 @@
         <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2041,19 +2044,19 @@
         <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" t="s">
         <v>100</v>
       </c>
-      <c r="H40" t="s">
-        <v>101</v>
-      </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2073,19 +2076,19 @@
         <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" t="s">
         <v>100</v>
       </c>
-      <c r="H41" t="s">
-        <v>101</v>
-      </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2105,19 +2108,19 @@
         <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2137,19 +2140,19 @@
         <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2169,19 +2172,19 @@
         <v>62</v>
       </c>
       <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
         <v>91</v>
       </c>
-      <c r="G44" t="s">
-        <v>92</v>
-      </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2201,19 +2204,19 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" t="s">
         <v>91</v>
       </c>
-      <c r="G45" t="s">
-        <v>92</v>
-      </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2233,19 +2236,19 @@
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2265,19 +2268,19 @@
         <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2297,19 +2300,19 @@
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2329,19 +2332,19 @@
         <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2361,19 +2364,19 @@
         <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2393,19 +2396,19 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2425,19 +2428,19 @@
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" t="s">
         <v>98</v>
       </c>
-      <c r="H52" t="s">
-        <v>99</v>
-      </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2457,19 +2460,19 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H53" t="s">
         <v>114</v>
       </c>
       <c r="I53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2489,19 +2492,19 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54" t="s">
         <v>114</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2521,13 +2524,19 @@
         <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
+        <v>97</v>
       </c>
       <c r="J55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2544,16 +2553,22 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2570,16 +2585,22 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" t="s">
+        <v>97</v>
       </c>
       <c r="J57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2596,22 +2617,22 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2628,10 +2649,22 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" t="s">
+        <v>105</v>
       </c>
       <c r="J59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2648,22 +2681,22 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2680,22 +2713,22 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2712,22 +2745,22 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2744,22 +2777,22 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2776,22 +2809,22 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2808,22 +2841,22 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2840,22 +2873,22 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2872,22 +2905,22 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -2904,22 +2937,22 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2936,22 +2969,22 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -2968,22 +3001,22 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3000,22 +3033,22 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3035,19 +3068,19 @@
         <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
         <v>58</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3064,22 +3097,22 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3096,22 +3129,22 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
         <v>91</v>
       </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3128,22 +3161,22 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3160,22 +3193,22 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3192,22 +3225,22 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3224,22 +3257,22 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
         <v>103</v>
       </c>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
       <c r="J78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3256,22 +3289,22 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
         <v>103</v>
       </c>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
       <c r="J79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3288,22 +3321,22 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
         <v>103</v>
       </c>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
       <c r="J80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3320,22 +3353,22 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I81" t="s">
         <v>103</v>
       </c>
-      <c r="I81" t="s">
-        <v>104</v>
-      </c>
       <c r="J81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3352,22 +3385,22 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
         <v>103</v>
       </c>
-      <c r="I82" t="s">
-        <v>104</v>
-      </c>
       <c r="J82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3384,22 +3417,22 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H83" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" t="s">
         <v>103</v>
       </c>
-      <c r="I83" t="s">
-        <v>104</v>
-      </c>
       <c r="J83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3416,22 +3449,22 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H84" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s">
         <v>103</v>
       </c>
-      <c r="I84" t="s">
-        <v>104</v>
-      </c>
       <c r="J84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3448,22 +3481,22 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I85" t="s">
         <v>103</v>
       </c>
-      <c r="I85" t="s">
-        <v>104</v>
-      </c>
       <c r="J85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3480,22 +3513,22 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s">
         <v>103</v>
       </c>
-      <c r="I86" t="s">
-        <v>104</v>
-      </c>
       <c r="J86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3512,22 +3545,22 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" t="s">
         <v>103</v>
       </c>
-      <c r="I87" t="s">
-        <v>104</v>
-      </c>
       <c r="J87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3544,22 +3577,22 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H88" t="s">
+        <v>102</v>
+      </c>
+      <c r="I88" t="s">
         <v>103</v>
       </c>
-      <c r="I88" t="s">
-        <v>104</v>
-      </c>
       <c r="J88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3576,22 +3609,22 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H89" t="s">
+        <v>102</v>
+      </c>
+      <c r="I89" t="s">
         <v>103</v>
       </c>
-      <c r="I89" t="s">
-        <v>104</v>
-      </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3608,22 +3641,22 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3640,22 +3673,22 @@
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H91" t="s">
+        <v>107</v>
+      </c>
+      <c r="I91" t="s">
         <v>108</v>
       </c>
-      <c r="I91" t="s">
-        <v>109</v>
-      </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3672,22 +3705,22 @@
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H92" t="s">
         <v>58</v>
       </c>
       <c r="I92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107DA33C-92D4-AA41-81B6-A391F406CFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94590B96-14A2-1440-9EB5-FB4AC700E790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="208">
   <si>
     <t>DOI</t>
   </si>
@@ -368,6 +368,282 @@
   </si>
   <si>
     <t>%Eomes+ of pentamer+</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-00991-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-00991-2_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01000-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01000-2_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01000-2_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01000-2_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01000-2_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-022-01000-2_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01010-8_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01024-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01024-2_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01024-2_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01024-2_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01024-2_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01038-w_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01045-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01045-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01045-x_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01049-7_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01069-3_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01069-3_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01069-3_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01069-3_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01069-3_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01071-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01071-9_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01071-9_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01071-9_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01073-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01077-3_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01079-1_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01079-1_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01079-1_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01079-1_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01082-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01086-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01086-2_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01086-2_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01086-2_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01086-2_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01089-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01089-z_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01106-1_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01113-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01129-8_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01134-x_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01136-9_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01138-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01153-8_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41551-023-01160-9_zero_fig1</t>
   </si>
 </sst>
 </file>
@@ -768,518 +1044,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>92</v>
       </c>
-      <c r="J3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>94</v>
       </c>
-      <c r="J4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
         <v>95</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>94</v>
       </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
         <v>95</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>94</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
-        <v>90</v>
-      </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
         <v>95</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>90</v>
-      </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
-        <v>90</v>
-      </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>94</v>
       </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>92</v>
       </c>
-      <c r="J11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>92</v>
       </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>92</v>
       </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
       <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>92</v>
       </c>
-      <c r="J15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
         <v>91</v>
@@ -1288,1054 +1609,1153 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>108</v>
       </c>
-      <c r="J17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
         <v>58</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>92</v>
       </c>
-      <c r="J18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s">
         <v>58</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="J19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>57</v>
       </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>92</v>
       </c>
-      <c r="J20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
-        <v>90</v>
-      </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>92</v>
       </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s">
         <v>58</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>92</v>
       </c>
-      <c r="J22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="F23" t="s">
-        <v>90</v>
-      </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
         <v>47</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>92</v>
       </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" t="s">
-        <v>90</v>
-      </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
         <v>47</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>92</v>
       </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
         <v>47</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>92</v>
       </c>
-      <c r="J25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
         <v>58</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>92</v>
       </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="F27" t="s">
-        <v>90</v>
-      </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" t="s">
         <v>58</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>92</v>
       </c>
-      <c r="J27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
         <v>58</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>92</v>
       </c>
-      <c r="J28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" t="s">
-        <v>90</v>
-      </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" t="s">
         <v>58</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>92</v>
       </c>
-      <c r="J29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
         <v>58</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>92</v>
       </c>
-      <c r="J30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" t="s">
-        <v>90</v>
-      </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" t="s">
         <v>58</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>92</v>
       </c>
-      <c r="J31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
-        <v>90</v>
-      </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" t="s">
         <v>58</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>92</v>
       </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>58</v>
       </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" t="s">
         <v>58</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>92</v>
       </c>
-      <c r="J33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="F34" t="s">
-        <v>90</v>
-      </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
         <v>58</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>92</v>
       </c>
-      <c r="J34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>28</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
         <v>58</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>92</v>
       </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>29</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>58</v>
       </c>
-      <c r="F36" t="s">
-        <v>90</v>
-      </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
         <v>58</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>92</v>
       </c>
-      <c r="J36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>59</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>89</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>99</v>
-      </c>
-      <c r="H37" t="s">
-        <v>100</v>
       </c>
       <c r="I37" t="s">
         <v>100</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>59</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>89</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>99</v>
-      </c>
-      <c r="H38" t="s">
-        <v>100</v>
       </c>
       <c r="I38" t="s">
         <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>60</v>
       </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
       <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
         <v>99</v>
-      </c>
-      <c r="H39" t="s">
-        <v>111</v>
       </c>
       <c r="I39" t="s">
         <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>59</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>89</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>99</v>
-      </c>
-      <c r="H40" t="s">
-        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>59</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>89</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>99</v>
-      </c>
-      <c r="H41" t="s">
-        <v>100</v>
       </c>
       <c r="I41" t="s">
         <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>61</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>89</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>99</v>
-      </c>
-      <c r="H42" t="s">
-        <v>101</v>
       </c>
       <c r="I42" t="s">
         <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>61</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>89</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>99</v>
-      </c>
-      <c r="H43" t="s">
-        <v>101</v>
       </c>
       <c r="I43" t="s">
         <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
         <v>31</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>62</v>
       </c>
-      <c r="F44" t="s">
-        <v>90</v>
-      </c>
       <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="s">
         <v>91</v>
-      </c>
-      <c r="H44" t="s">
-        <v>77</v>
       </c>
       <c r="I44" t="s">
         <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
         <v>31</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>62</v>
       </c>
-      <c r="F45" t="s">
-        <v>90</v>
-      </c>
       <c r="G45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s">
         <v>91</v>
-      </c>
-      <c r="H45" t="s">
-        <v>77</v>
       </c>
       <c r="I45" t="s">
         <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>63</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>89</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>99</v>
-      </c>
-      <c r="H46" t="s">
-        <v>112</v>
       </c>
       <c r="I46" t="s">
         <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>64</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>89</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>99</v>
-      </c>
-      <c r="H47" t="s">
-        <v>101</v>
       </c>
       <c r="I47" t="s">
         <v>101</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>65</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>89</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>99</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>110</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>108</v>
       </c>
-      <c r="J48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>66</v>
       </c>
-      <c r="F49" t="s">
-        <v>90</v>
-      </c>
       <c r="G49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
         <v>97</v>
@@ -2344,30 +2764,33 @@
         <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" t="s">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>66</v>
       </c>
-      <c r="F50" t="s">
-        <v>90</v>
-      </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s">
         <v>97</v>
@@ -2376,30 +2799,33 @@
         <v>97</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>66</v>
       </c>
-      <c r="F51" t="s">
-        <v>90</v>
-      </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
         <v>97</v>
@@ -2408,1318 +2834,1444 @@
         <v>97</v>
       </c>
       <c r="J51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>67</v>
       </c>
-      <c r="F52" t="s">
-        <v>90</v>
-      </c>
       <c r="G52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" t="s">
         <v>97</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>98</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>97</v>
       </c>
-      <c r="J52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
         <v>36</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>68</v>
       </c>
-      <c r="F53" t="s">
-        <v>90</v>
-      </c>
       <c r="G53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" t="s">
         <v>97</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>114</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>97</v>
       </c>
-      <c r="J53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
         <v>36</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>68</v>
       </c>
-      <c r="F54" t="s">
-        <v>90</v>
-      </c>
       <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
         <v>97</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>114</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>97</v>
       </c>
-      <c r="J54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>10</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>69</v>
       </c>
-      <c r="F55" t="s">
-        <v>90</v>
-      </c>
       <c r="G55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" t="s">
         <v>97</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>114</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>97</v>
       </c>
-      <c r="J55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>115</v>
       </c>
-      <c r="F56" t="s">
-        <v>90</v>
-      </c>
       <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s">
         <v>97</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>114</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>97</v>
       </c>
-      <c r="J56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>70</v>
       </c>
-      <c r="F57" t="s">
-        <v>90</v>
-      </c>
       <c r="G57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" t="s">
         <v>97</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>114</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>97</v>
       </c>
-      <c r="J57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
         <v>37</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>71</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>89</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>99</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>113</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>105</v>
       </c>
-      <c r="J58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="K58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
         <v>37</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>72</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>89</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>99</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>113</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>105</v>
       </c>
-      <c r="J59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="K59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
         <v>38</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>73</v>
       </c>
-      <c r="F60" t="s">
-        <v>90</v>
-      </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" t="s">
         <v>47</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>92</v>
       </c>
-      <c r="J60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="K60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
         <v>38</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>19</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>74</v>
       </c>
-      <c r="F61" t="s">
-        <v>90</v>
-      </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" t="s">
         <v>47</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>92</v>
       </c>
-      <c r="J61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="K61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>20</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>74</v>
       </c>
-      <c r="F62" t="s">
-        <v>90</v>
-      </c>
       <c r="G62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" t="s">
         <v>47</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>92</v>
       </c>
-      <c r="J62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="K62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>74</v>
       </c>
-      <c r="F63" t="s">
-        <v>90</v>
-      </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" t="s">
         <v>47</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>92</v>
       </c>
-      <c r="J63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="K63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>74</v>
       </c>
-      <c r="F64" t="s">
-        <v>90</v>
-      </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
         <v>47</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>92</v>
       </c>
-      <c r="J64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="K64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" t="s">
         <v>38</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>74</v>
       </c>
-      <c r="F65" t="s">
-        <v>90</v>
-      </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s">
         <v>47</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>92</v>
       </c>
-      <c r="J65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
         <v>38</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>73</v>
       </c>
-      <c r="F66" t="s">
-        <v>90</v>
-      </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
         <v>47</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>92</v>
       </c>
-      <c r="J66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="K66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" t="s">
         <v>38</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>74</v>
       </c>
-      <c r="F67" t="s">
-        <v>90</v>
-      </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" t="s">
         <v>47</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>92</v>
       </c>
-      <c r="J67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="K67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>27</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>74</v>
       </c>
-      <c r="F68" t="s">
-        <v>90</v>
-      </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
         <v>47</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>92</v>
       </c>
-      <c r="J68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>28</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>74</v>
       </c>
-      <c r="F69" t="s">
-        <v>90</v>
-      </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
         <v>47</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>92</v>
       </c>
-      <c r="J69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="K69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" t="s">
         <v>38</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>29</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>74</v>
       </c>
-      <c r="F70" t="s">
-        <v>90</v>
-      </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
         <v>47</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>92</v>
       </c>
-      <c r="J70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="K70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
         <v>39</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>75</v>
       </c>
-      <c r="F71" t="s">
-        <v>90</v>
-      </c>
       <c r="G71" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" t="s">
         <v>99</v>
-      </c>
-      <c r="H71" t="s">
-        <v>104</v>
       </c>
       <c r="I71" t="s">
         <v>104</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="K71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>58</v>
       </c>
-      <c r="F72" t="s">
-        <v>90</v>
-      </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
         <v>58</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>92</v>
       </c>
-      <c r="J72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="K72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" t="s">
         <v>41</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>76</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>89</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>99</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>76</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>105</v>
       </c>
-      <c r="J73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="K73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>77</v>
       </c>
-      <c r="F74" t="s">
-        <v>90</v>
-      </c>
       <c r="G74" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" t="s">
         <v>91</v>
-      </c>
-      <c r="H74" t="s">
-        <v>77</v>
       </c>
       <c r="I74" t="s">
         <v>77</v>
       </c>
       <c r="J74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
         <v>41</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>10</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>78</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>89</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>99</v>
-      </c>
-      <c r="H75" t="s">
-        <v>106</v>
       </c>
       <c r="I75" t="s">
         <v>106</v>
       </c>
       <c r="J75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="K75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" t="s">
         <v>41</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>78</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>89</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>99</v>
-      </c>
-      <c r="H76" t="s">
-        <v>106</v>
       </c>
       <c r="I76" t="s">
         <v>106</v>
       </c>
       <c r="J76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="K76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
         <v>41</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>12</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>78</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>89</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>99</v>
-      </c>
-      <c r="H77" t="s">
-        <v>106</v>
       </c>
       <c r="I77" t="s">
         <v>106</v>
       </c>
       <c r="J77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="K77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
         <v>42</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>79</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>89</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>99</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>102</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>103</v>
       </c>
-      <c r="J78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="K78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" t="s">
         <v>42</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>79</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>89</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>99</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>102</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>103</v>
       </c>
-      <c r="J79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="K79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" t="s">
         <v>42</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>20</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>79</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>89</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>99</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>102</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>103</v>
       </c>
-      <c r="J80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="K80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
         <v>42</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>21</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>79</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>89</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>99</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>102</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>103</v>
       </c>
-      <c r="J81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="K81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
         <v>42</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>8</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
       <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>79</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>89</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>99</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>102</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>103</v>
       </c>
-      <c r="J82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="K82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" t="s">
         <v>42</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>10</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
       <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>79</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>89</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>99</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>102</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>103</v>
       </c>
-      <c r="J83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="K83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" t="s">
         <v>42</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>11</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
       <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>79</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>89</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>99</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>102</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>103</v>
       </c>
-      <c r="J84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="K84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" t="s">
         <v>42</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>12</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
       <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
         <v>79</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>89</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>99</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>102</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>103</v>
       </c>
-      <c r="J85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="K85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
         <v>42</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>80</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>89</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>99</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>102</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>103</v>
       </c>
-      <c r="J86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="K86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
         <v>42</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>27</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
       <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>79</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>89</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>99</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>102</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>103</v>
       </c>
-      <c r="J87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="K87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" t="s">
         <v>42</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
       <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>79</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>89</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>99</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>102</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>103</v>
       </c>
-      <c r="J88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="K88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" t="s">
         <v>42</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>29</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
       <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>79</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>89</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>99</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>102</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>103</v>
       </c>
-      <c r="J89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="K89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" t="s">
         <v>43</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
       <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
         <v>81</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>89</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>99</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>109</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>101</v>
       </c>
-      <c r="J90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="K90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
         <v>82</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>89</v>
       </c>
-      <c r="G91" t="s">
-        <v>96</v>
-      </c>
       <c r="H91" t="s">
+        <v>96</v>
+      </c>
+      <c r="I91" t="s">
         <v>107</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>108</v>
       </c>
-      <c r="J91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="K91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
       <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
         <v>83</v>
       </c>
-      <c r="F92" t="s">
-        <v>90</v>
-      </c>
       <c r="G92" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s">
+        <v>96</v>
+      </c>
+      <c r="I92" t="s">
         <v>58</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>92</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>93</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94590B96-14A2-1440-9EB5-FB4AC700E790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47086B9-8986-3E4E-8FB9-1749BDC7E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="209">
   <si>
     <t>DOI</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>10.1038:s41551-023-01160-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1046,13 +1049,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="H62" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2414,7 +2419,7 @@
         <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="K39" t="s">
         <v>93</v>
@@ -2659,7 +2664,7 @@
         <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s">
         <v>93</v>
@@ -3674,7 +3679,7 @@
         <v>106</v>
       </c>
       <c r="J75" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="K75" t="s">
         <v>93</v>
@@ -3709,7 +3714,7 @@
         <v>106</v>
       </c>
       <c r="J76" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="K76" t="s">
         <v>93</v>
@@ -3744,7 +3749,7 @@
         <v>106</v>
       </c>
       <c r="J77" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s">
         <v>93</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47086B9-8986-3E4E-8FB9-1749BDC7E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E049B7-C7BC-8441-81A7-7D0665CDB430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H62" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="G72" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1191,10 +1191,10 @@
         <v>96</v>
       </c>
       <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
         <v>95</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
       </c>
       <c r="K4" t="s">
         <v>93</v>
@@ -1226,10 +1226,10 @@
         <v>96</v>
       </c>
       <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
         <v>95</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
       </c>
       <c r="K5" t="s">
         <v>93</v>
@@ -1261,10 +1261,10 @@
         <v>96</v>
       </c>
       <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
         <v>95</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
       </c>
       <c r="K6" t="s">
         <v>93</v>
@@ -1296,10 +1296,10 @@
         <v>96</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
       </c>
       <c r="K7" t="s">
         <v>93</v>
@@ -1331,10 +1331,10 @@
         <v>96</v>
       </c>
       <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
         <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
       </c>
       <c r="K8" t="s">
         <v>93</v>
@@ -1366,10 +1366,10 @@
         <v>96</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
         <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
       </c>
       <c r="K9" t="s">
         <v>93</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E049B7-C7BC-8441-81A7-7D0665CDB430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66DAD28-B1F6-944A-84E5-7D5D6B33C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="204">
   <si>
     <t>DOI</t>
   </si>
@@ -340,33 +340,15 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Force</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>Blood biochemical concentration</t>
-  </si>
-  <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
-    <t>Acoustic intensity</t>
-  </si>
-  <si>
-    <t>Osmotic pressure</t>
-  </si>
-  <si>
     <t>Cell count</t>
   </si>
   <si>
-    <t>Protein in cell percentage</t>
-  </si>
-  <si>
     <t>%Eomes+ of pentamer+</t>
   </si>
   <si>
@@ -647,6 +629,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G72" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="H65" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1097,7 +1082,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1132,7 +1117,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1156,7 +1141,7 @@
         <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
         <v>92</v>
@@ -1167,7 +1152,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1202,7 +1187,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1237,7 +1222,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1272,7 +1257,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1307,7 +1292,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1342,7 +1327,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1377,7 +1362,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1401,7 +1386,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>92</v>
@@ -1412,7 +1397,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1436,7 +1421,7 @@
         <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
         <v>92</v>
@@ -1447,7 +1432,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1471,7 +1456,7 @@
         <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
         <v>92</v>
@@ -1482,7 +1467,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1506,7 +1491,7 @@
         <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
         <v>92</v>
@@ -1517,7 +1502,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1552,7 +1537,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1576,7 +1561,7 @@
         <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
         <v>92</v>
@@ -1587,7 +1572,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1622,7 +1607,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1646,10 +1631,10 @@
         <v>96</v>
       </c>
       <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
         <v>107</v>
-      </c>
-      <c r="J17" t="s">
-        <v>108</v>
       </c>
       <c r="K17" t="s">
         <v>93</v>
@@ -1657,7 +1642,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1692,7 +1677,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1727,7 +1712,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1762,7 +1747,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1797,7 +1782,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1832,7 +1817,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1867,7 +1852,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1902,7 +1887,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1937,7 +1922,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1972,7 +1957,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2007,7 +1992,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2042,7 +2027,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2077,7 +2062,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2112,7 +2097,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2147,7 +2132,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2182,7 +2167,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2217,7 +2202,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -2252,7 +2237,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -2287,7 +2272,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -2322,7 +2307,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -2357,7 +2342,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
@@ -2392,7 +2377,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -2416,10 +2401,10 @@
         <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="J39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K39" t="s">
         <v>93</v>
@@ -2427,7 +2412,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2462,7 +2447,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -2497,7 +2482,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
@@ -2532,7 +2517,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -2567,7 +2552,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
         <v>31</v>
@@ -2591,10 +2576,10 @@
         <v>91</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s">
         <v>93</v>
@@ -2602,7 +2587,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
@@ -2626,10 +2611,10 @@
         <v>91</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s">
         <v>93</v>
@@ -2637,7 +2622,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -2661,10 +2646,10 @@
         <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="J46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K46" t="s">
         <v>93</v>
@@ -2672,7 +2657,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -2707,7 +2692,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -2731,10 +2716,10 @@
         <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s">
         <v>93</v>
@@ -2742,7 +2727,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -2777,7 +2762,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -2812,7 +2797,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -2847,7 +2832,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
@@ -2882,7 +2867,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
@@ -2906,7 +2891,7 @@
         <v>97</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J53" t="s">
         <v>97</v>
@@ -2917,7 +2902,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
@@ -2941,7 +2926,7 @@
         <v>97</v>
       </c>
       <c r="I54" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
         <v>97</v>
@@ -2952,7 +2937,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
@@ -2976,7 +2961,7 @@
         <v>97</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J55" t="s">
         <v>97</v>
@@ -2987,7 +2972,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
@@ -3002,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G56" t="s">
         <v>90</v>
@@ -3011,7 +2996,7 @@
         <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J56" t="s">
         <v>97</v>
@@ -3022,7 +3007,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
@@ -3046,7 +3031,7 @@
         <v>97</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J57" t="s">
         <v>97</v>
@@ -3057,7 +3042,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3081,7 +3066,7 @@
         <v>99</v>
       </c>
       <c r="I58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J58" t="s">
         <v>105</v>
@@ -3092,7 +3077,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -3116,7 +3101,7 @@
         <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J59" t="s">
         <v>105</v>
@@ -3127,7 +3112,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3162,7 +3147,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -3197,7 +3182,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -3232,7 +3217,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -3267,7 +3252,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -3302,7 +3287,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -3337,7 +3322,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -3372,7 +3357,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3407,7 +3392,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3442,7 +3427,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3477,7 +3462,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -3512,7 +3497,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -3547,7 +3532,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
         <v>40</v>
@@ -3582,7 +3567,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3606,7 +3591,7 @@
         <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="J73" t="s">
         <v>105</v>
@@ -3617,7 +3602,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3641,10 +3626,10 @@
         <v>91</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s">
         <v>93</v>
@@ -3652,7 +3637,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
@@ -3676,10 +3661,10 @@
         <v>99</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="J75" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K75" t="s">
         <v>93</v>
@@ -3687,7 +3672,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
@@ -3711,10 +3696,10 @@
         <v>99</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="J76" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K76" t="s">
         <v>93</v>
@@ -3722,7 +3707,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
         <v>41</v>
@@ -3746,10 +3731,10 @@
         <v>99</v>
       </c>
       <c r="I77" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="J77" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K77" t="s">
         <v>93</v>
@@ -3757,7 +3742,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3792,7 +3777,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3827,7 +3812,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3862,7 +3847,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -3897,7 +3882,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -3932,7 +3917,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -3967,7 +3952,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -4002,7 +3987,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4037,7 +4022,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4072,7 +4057,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4107,7 +4092,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4142,7 +4127,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4177,7 +4162,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
@@ -4201,7 +4186,7 @@
         <v>99</v>
       </c>
       <c r="I90" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J90" t="s">
         <v>101</v>
@@ -4212,7 +4197,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
@@ -4236,10 +4221,10 @@
         <v>96</v>
       </c>
       <c r="I91" t="s">
+        <v>106</v>
+      </c>
+      <c r="J91" t="s">
         <v>107</v>
-      </c>
-      <c r="J91" t="s">
-        <v>108</v>
       </c>
       <c r="K91" t="s">
         <v>93</v>
@@ -4247,7 +4232,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
         <v>45</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66DAD28-B1F6-944A-84E5-7D5D6B33C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFF60F-C6A5-C541-8756-CA34A156CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H65" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4215,7 +4215,7 @@
         <v>82</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s">
         <v>96</v>

--- a/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biomed_eng/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biomed_eng/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFF60F-C6A5-C541-8756-CA34A156CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB382DC-2745-2A47-A0E0-6F30E30C1DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="11060" windowWidth="37600" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>10.1038:s41551-023-01160-9</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -280,12 +277,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -632,6 +623,15 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1062,27 +1062,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1097,27 +1097,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1132,27 +1132,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1167,27 +1167,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1202,27 +1202,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1237,27 +1237,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1272,27 +1272,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1307,27 +1307,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1342,27 +1342,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1377,27 +1377,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1412,27 +1412,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1447,27 +1447,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1482,27 +1482,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1517,27 +1517,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1552,27 +1552,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1587,27 +1587,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1622,27 +1622,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1657,27 +1657,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1692,27 +1692,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1727,27 +1727,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1762,27 +1762,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1797,27 +1797,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1832,27 +1832,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1867,27 +1867,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1902,27 +1902,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1937,27 +1937,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1972,27 +1972,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2007,27 +2007,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2042,27 +2042,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2077,27 +2077,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2112,27 +2112,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2147,27 +2147,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2182,27 +2182,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -2217,27 +2217,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -2252,27 +2252,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -2287,27 +2287,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -2322,27 +2322,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
@@ -2357,27 +2357,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -2392,27 +2392,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2427,27 +2427,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -2462,27 +2462,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
@@ -2497,27 +2497,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -2532,27 +2532,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>31</v>
@@ -2567,27 +2567,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
@@ -2602,27 +2602,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -2637,27 +2637,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -2672,27 +2672,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -2707,27 +2707,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -2742,27 +2742,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -2777,27 +2777,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -2812,27 +2812,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
@@ -2847,27 +2847,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
@@ -2882,27 +2882,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
@@ -2917,27 +2917,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
@@ -2952,27 +2952,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
@@ -2987,27 +2987,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
@@ -3022,27 +3022,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3057,27 +3057,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -3092,27 +3092,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3127,27 +3127,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -3162,27 +3162,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -3197,27 +3197,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -3232,27 +3232,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -3267,27 +3267,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -3302,27 +3302,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -3337,27 +3337,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3372,27 +3372,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3407,27 +3407,27 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3442,27 +3442,27 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -3477,27 +3477,27 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -3512,27 +3512,27 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
         <v>40</v>
@@ -3547,27 +3547,27 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3582,27 +3582,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J73" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3617,27 +3617,27 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
@@ -3652,27 +3652,27 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J75" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
@@ -3687,27 +3687,27 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K76" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
         <v>41</v>
@@ -3722,27 +3722,27 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3757,27 +3757,27 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I78" t="s">
         <v>99</v>
       </c>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
       <c r="J78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3792,27 +3792,27 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" t="s">
         <v>99</v>
       </c>
-      <c r="I79" t="s">
-        <v>102</v>
-      </c>
       <c r="J79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3827,27 +3827,27 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" t="s">
         <v>99</v>
       </c>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
       <c r="J80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -3862,27 +3862,27 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s">
         <v>99</v>
       </c>
-      <c r="I81" t="s">
-        <v>102</v>
-      </c>
       <c r="J81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -3897,27 +3897,27 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" t="s">
         <v>99</v>
       </c>
-      <c r="I82" t="s">
-        <v>102</v>
-      </c>
       <c r="J82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -3932,27 +3932,27 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s">
+        <v>96</v>
+      </c>
+      <c r="I83" t="s">
         <v>99</v>
       </c>
-      <c r="I83" t="s">
-        <v>102</v>
-      </c>
       <c r="J83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -3967,27 +3967,27 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s">
+        <v>96</v>
+      </c>
+      <c r="I84" t="s">
         <v>99</v>
       </c>
-      <c r="I84" t="s">
-        <v>102</v>
-      </c>
       <c r="J84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4002,27 +4002,27 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" t="s">
         <v>99</v>
       </c>
-      <c r="I85" t="s">
-        <v>102</v>
-      </c>
       <c r="J85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K85" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4037,27 +4037,27 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s">
+        <v>96</v>
+      </c>
+      <c r="I86" t="s">
         <v>99</v>
       </c>
-      <c r="I86" t="s">
-        <v>102</v>
-      </c>
       <c r="J86" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4072,27 +4072,27 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87" t="s">
         <v>99</v>
       </c>
-      <c r="I87" t="s">
-        <v>102</v>
-      </c>
       <c r="J87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4107,27 +4107,27 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s">
+        <v>96</v>
+      </c>
+      <c r="I88" t="s">
         <v>99</v>
       </c>
-      <c r="I88" t="s">
-        <v>102</v>
-      </c>
       <c r="J88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4142,27 +4142,27 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s">
+        <v>96</v>
+      </c>
+      <c r="I89" t="s">
         <v>99</v>
       </c>
-      <c r="I89" t="s">
-        <v>102</v>
-      </c>
       <c r="J89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
@@ -4177,27 +4177,27 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
@@ -4212,27 +4212,27 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J91" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
         <v>45</v>
@@ -4247,22 +4247,22 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
